--- a/medicine/Psychotrope/South_East_Asia_Brewery/South_East_Asia_Brewery.xlsx
+++ b/medicine/Psychotrope/South_East_Asia_Brewery/South_East_Asia_Brewery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 South East Asia Brewery Ltd est le nom d'une brasserie vietnamienne fondée en 1993 par le groupement d'une compagnie locale Viet Ha Breweries Ltd. et Carlsberg avec la participation du Fonds International pour le développement.
